--- a/data/prge_class_stress.xlsx
+++ b/data/prge_class_stress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon/BrICC Clinic/BrICC Terms/Spring 2020/pilot_data_2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539DB92B-607C-5840-A514-5576B7FEB1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E55941-A7CD-C447-B6E1-F17A85A34F27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15800" xr2:uid="{AE1E037E-E505-0149-A9D0-089A09720308}"/>
+    <workbookView xWindow="35920" yWindow="5840" windowWidth="27640" windowHeight="15800" xr2:uid="{AE1E037E-E505-0149-A9D0-089A09720308}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -425,18 +425,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398DB6EA-C739-6346-AD1A-DD10DE80072D}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -480,7 +480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -491,7 +491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
